--- a/整体规划-策划.xlsx
+++ b/整体规划-策划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25440" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25440" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>FL教程</t>
   </si>
@@ -103,18 +103,6 @@
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有资源整合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>找2D横版和回合战斗的模板，确认架构</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -135,15 +123,137 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡玩法？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成进度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡roguelike如何做？</t>
+    <t>确认roguelike迷宫生成逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础-找2D横版模板，确认架构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗-找回合战斗模板,改成横版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划-已有资源整合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定主角-模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定主角-骨骼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定主角-蒙皮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定主角-材质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定主角-动作-站立、移动、跑步（蒙太奇）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-敲定出生场景风格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐-敲定出生景背景音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗-测试战斗场景搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础-出生场景搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划-UE4蓝图说明整理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术-UI风格敲定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础-风格渲染-初版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>角色、大地图、物件、U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基础-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NPC+对话逻辑</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -518,62 +628,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="str">
-        <f>学习流程!A2</f>
-        <v>客户端-基础</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +895,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/整体规划-策划.xlsx
+++ b/整体规划-策划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25440" windowHeight="13020"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,108 +17,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
-  <si>
-    <t>FL教程</t>
-  </si>
-  <si>
-    <t>C++教程</t>
-  </si>
-  <si>
-    <t>blender教程</t>
-  </si>
-  <si>
-    <t>CG绘画基础教程</t>
-  </si>
-  <si>
-    <t>乐理教程</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+  <si>
+    <t>优先级</t>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>完成进度</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>基础游戏操作环境，确认主角操作环境，确认战斗环境</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>找2D横版模板，确认架构</t>
+  </si>
+  <si>
+    <t>确认回合战斗模板，改成横板</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>敲定主角模型</t>
+  </si>
+  <si>
+    <t>随机关卡</t>
+  </si>
+  <si>
+    <t>敲定主角骨骼</t>
+  </si>
+  <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <t>敲定主角蒙皮</t>
+  </si>
+  <si>
+    <t>NPC和伙伴AI</t>
   </si>
   <si>
     <t>美术-角色-模型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲定主角材质</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>美术-角色-骨骼</t>
+  </si>
+  <si>
+    <t>敲定主角动作-idle、移动、跑步、跳跃、蹲下</t>
+  </si>
+  <si>
+    <t>经营</t>
+  </si>
+  <si>
+    <t>美术-角色-蒙皮</t>
+  </si>
+  <si>
+    <t>敲定基础渲染方式</t>
+  </si>
+  <si>
+    <t>建造</t>
+  </si>
+  <si>
+    <t>美术-角色-材质</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>资源整理</t>
+  </si>
+  <si>
+    <t>美术-角色-动作</t>
+  </si>
+  <si>
+    <t>测试战斗场景布置+测试怪布置</t>
+  </si>
+  <si>
+    <t>美术-场景+物件</t>
+  </si>
+  <si>
+    <t>确认地图配置流程，规划地图</t>
+  </si>
+  <si>
+    <t>美术-UI</t>
+  </si>
+  <si>
+    <t>规划世界观和非战斗/中立地图配置</t>
+  </si>
+  <si>
+    <t>音乐-背景</t>
+  </si>
+  <si>
+    <t>确认非战斗/中立地图的配置方式</t>
+  </si>
+  <si>
+    <t>音乐-音效</t>
+  </si>
+  <si>
+    <t>规划战斗地图基础元素及玩法循环</t>
+  </si>
+  <si>
+    <t>使用prime算法生成道路</t>
+  </si>
+  <si>
+    <t>音乐-UI</t>
+  </si>
+  <si>
+    <t>确认战斗迷宫生成+配置方式</t>
+  </si>
+  <si>
+    <t>音乐-其他补充</t>
+  </si>
+  <si>
+    <t>出生地美术场景搭建</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>第一个关卡配置</t>
+  </si>
+  <si>
+    <t>传送点配置和功能实现</t>
+  </si>
+  <si>
+    <t>确认初版UI风格，道具配置流程，规划</t>
+  </si>
+  <si>
+    <t>规划初版UI风格和资源整合方式</t>
+  </si>
+  <si>
+    <t>制作背包系统</t>
+  </si>
+  <si>
+    <t>制作NPC，NPC可对话，制作第一个伙伴</t>
+  </si>
+  <si>
+    <t>确认自己+伙伴战斗逻辑，确认人物相关属性</t>
+  </si>
+  <si>
+    <t>确认每日行动点，增加白天黑夜和时间同步设定</t>
+  </si>
+  <si>
+    <t>开发个人经营</t>
+  </si>
+  <si>
+    <t>开发NPC交易</t>
+  </si>
+  <si>
+    <t>开发NPC和伙伴AI</t>
+  </si>
+  <si>
+    <t>制作NPC和伙伴每日的单独行为树</t>
+  </si>
+  <si>
+    <t>规划</t>
+  </si>
+  <si>
+    <t>确认主题音乐</t>
+  </si>
+  <si>
+    <t>工具</t>
   </si>
   <si>
     <t>客户端-基础</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-角色-骨骼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-角色-蒙皮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-角色-动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-角色-材质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS教程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-场景+物件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐-背景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐-音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐-UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐-其他补充</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有资源整合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>找2D横版和回合战斗的模板，确认架构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UE4教程</t>
     </r>
     <r>
@@ -126,32 +217,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+C++教程</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡玩法？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成进度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡roguelike如何做？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blender教程</t>
+  </si>
+  <si>
+    <t>PS教程</t>
+  </si>
+  <si>
+    <t>FL教程</t>
+  </si>
+  <si>
+    <t>C++教程</t>
+  </si>
+  <si>
+    <t>CG绘画基础教程</t>
+  </si>
+  <si>
+    <t>乐理教程</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,29 +262,157 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +425,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,23 +614,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="31"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -512,250 +1207,635 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="95.375" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="str">
-        <f>学习流程!A2</f>
-        <v>客户端-基础</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" ht="12" customHeight="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/整体规划-策划.xlsx
+++ b/整体规划-策划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25440" windowHeight="12990"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="25440" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="制作规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>FL教程</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有资源整合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找2D横版和回合战斗的模板，确认架构</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -123,137 +135,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>关卡玩法？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>完成进度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>确认roguelike迷宫生成逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础-找2D横版模板，确认架构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗-找回合战斗模板,改成横版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划-已有资源整合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定主角-模型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定主角-骨骼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定主角-蒙皮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定主角-材质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定主角-动作-站立、移动、跑步（蒙太奇）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-敲定出生场景风格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐-敲定出生景背景音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗-测试战斗场景搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础-出生场景搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划-UE4蓝图说明整理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术-UI风格敲定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础-风格渲染-初版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>角色、大地图、物件、U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基础-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NPC+对话逻辑</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
+    <t>关卡roguelike如何做？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -628,260 +518,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C2" t="str">
+        <f>学习流程!A2</f>
+        <v>客户端-基础</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +587,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
